--- a/InputData/bldgs/ICpUEfEBE/Incr Cost per Unit E for Electrified Building Equipment.xlsx
+++ b/InputData/bldgs/ICpUEfEBE/Incr Cost per Unit E for Electrified Building Equipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/WI/bldgs/ICpUEfEBE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/icpuefebe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{875015B8-CC27-1447-B80E-BB388851F227}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF8F53A-86E0-6745-89F7-51B73C6CB60D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="17640" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="17" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="624">
   <si>
     <t xml:space="preserve">Installed Base </t>
   </si>
@@ -2337,9 +2337,6 @@
   </si>
   <si>
     <t>30-AEO2021.101.highogs-d120120a</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
@@ -2807,7 +2804,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3327,6 +3324,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3728,8 +3726,8 @@
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B1" t="s">
-        <v>624</v>
+      <c r="C1" s="203">
+        <v>44307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
